--- a/Selenium_Test_C#/bin/Debug/Testcase_Age_Calculator_Boundary.xlsx
+++ b/Selenium_Test_C#/bin/Debug/Testcase_Age_Calculator_Boundary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>Jan</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Jul</t>
-  </si>
-  <si>
     <t>Date of birth needs to be earlier than the age at date.</t>
   </si>
   <si>
@@ -43,15 +40,6 @@
   </si>
   <si>
     <t>Nov</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
   </si>
   <si>
     <t>Age:1 years 1 months 1 daysor 13 months 1 daysor 56 weeks 5 daysor 397 daysor 9,528 hoursor 571,680 minutesor 34,300,800 seconds</t>
@@ -88,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,12 +210,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -573,7 +555,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,585 +879,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>1000</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
         <v>1000</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4999</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9998</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
         <v>31</v>
       </c>
-      <c r="C2">
+      <c r="C7" s="1">
         <v>9999</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4999</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9998</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>1000</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9998</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9998</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9998</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C18" s="1">
         <v>4999</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9998</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>9998</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9998</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9998</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
         <v>1000</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4999</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4999</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
         <v>30</v>
       </c>
-      <c r="C5">
+      <c r="C25" s="1">
         <v>9998</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1001</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>31</v>
-      </c>
-      <c r="C7">
-        <v>9999</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="E25" s="1">
         <v>15</v>
       </c>
-      <c r="C8">
+      <c r="F25" s="1">
         <v>4999</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1001</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>1001</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1001</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>9998</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1001</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>9999</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>9999</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>9999</v>
-      </c>
-      <c r="G12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>4999</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>9999</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1001</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>9999</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>9998</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>9999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>9998</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>31</v>
-      </c>
-      <c r="C17">
-        <v>9999</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>30</v>
-      </c>
-      <c r="F17">
-        <v>9998</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>4999</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>9998</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>1001</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="F19">
-        <v>9998</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>9998</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>30</v>
-      </c>
-      <c r="F20">
-        <v>9998</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>15</v>
-      </c>
-      <c r="F21">
-        <v>4999</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>31</v>
-      </c>
-      <c r="C22">
-        <v>9999</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>15</v>
-      </c>
-      <c r="F22">
-        <v>4999</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>4999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23">
-        <v>15</v>
-      </c>
-      <c r="F23">
-        <v>4999</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1001</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>4999</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>9998</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>4999</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3</v>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
